--- a/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/360 melgroups creation 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/360 melgroups creation 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D337D0-DA32-CF4C-9739-2BC76D12AE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCABAD5-FE37-954A-B247-70444E4C541D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{FBC110C4-4D74-5649-B20A-C27066A24D1D}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
